--- a/DOM_Banner/output/test/Keith A Joiner_2022.xlsx
+++ b/DOM_Banner/output/test/Keith A Joiner_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,70 +365,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,70 +447,75 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Arab Academy for Science, Technology and Maritime Transport, Alexandria, Egypt; University of New South Wales, Canberra, Australia; University of New South Wales, Canberra, Australia; University of New South Wales, Canberra, Australia; University of New South Wales, Canberra, Australia; University of New South Wales, Canberra, Australia; University of New South Wales, Canberra, Australia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4292348739</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A Novel Flying and Diving Wig Craft for Electronics Intelligence - a Conceptual Design</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022 International Telecommunications Conference (ITC-Egypt)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/itc-egypt55520.2022.9855715</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/itc-egypt55520.2022.9855715</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
